--- a/PriceList.xlsx
+++ b/PriceList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F40C61C-006C-4EA7-97BF-F7124F07F924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6682B0C-B3E7-4DC0-9E15-053F7DF4EC04}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Каркасы СП Мебель" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -4615,34 +4614,34 @@
         </row>
         <row r="180">
           <cell r="A180">
-            <v>82010390</v>
+            <v>82010402</v>
           </cell>
           <cell r="B180">
-            <v>3198</v>
+            <v>3038</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>82010402</v>
+            <v>82010390</v>
           </cell>
           <cell r="B181">
-            <v>3038</v>
+            <v>3198</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>82010391</v>
+            <v>82356337</v>
           </cell>
           <cell r="B182">
-            <v>2675</v>
+            <v>346</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>82356337</v>
+            <v>82010391</v>
           </cell>
           <cell r="B183">
-            <v>346</v>
+            <v>2675</v>
           </cell>
         </row>
         <row r="184">
@@ -5654,2483 +5653,2483 @@
         </row>
         <row r="311">
           <cell r="A311">
-            <v>82010592</v>
+            <v>82623836</v>
           </cell>
           <cell r="B311">
-            <v>2610</v>
+            <v>394</v>
           </cell>
         </row>
         <row r="312">
           <cell r="A312">
-            <v>82351259</v>
+            <v>82010592</v>
           </cell>
           <cell r="B312">
-            <v>2488</v>
+            <v>2610</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313">
-            <v>82010593</v>
+            <v>82351259</v>
           </cell>
           <cell r="B313">
-            <v>3093</v>
+            <v>2488</v>
           </cell>
         </row>
         <row r="314">
           <cell r="A314">
-            <v>82351260</v>
+            <v>82010593</v>
           </cell>
           <cell r="B314">
-            <v>3278</v>
+            <v>3093</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315">
-            <v>82351250</v>
+            <v>82351260</v>
           </cell>
           <cell r="B315">
-            <v>616</v>
+            <v>3278</v>
           </cell>
         </row>
         <row r="316">
           <cell r="A316">
-            <v>82351249</v>
+            <v>82351250</v>
           </cell>
           <cell r="B316">
-            <v>642</v>
+            <v>616</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317">
-            <v>82011304</v>
+            <v>82351249</v>
           </cell>
           <cell r="B317">
-            <v>464</v>
+            <v>642</v>
           </cell>
         </row>
         <row r="318">
           <cell r="A318">
-            <v>82624919</v>
+            <v>82011304</v>
           </cell>
           <cell r="B318">
-            <v>295</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319">
-            <v>82011308</v>
+            <v>82624919</v>
           </cell>
           <cell r="B319">
-            <v>891</v>
+            <v>295</v>
           </cell>
         </row>
         <row r="320">
           <cell r="A320">
-            <v>82011296</v>
+            <v>82011308</v>
           </cell>
           <cell r="B320">
-            <v>493</v>
+            <v>891</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321">
-            <v>82011322</v>
+            <v>82011296</v>
           </cell>
           <cell r="B321">
-            <v>998</v>
+            <v>493</v>
           </cell>
         </row>
         <row r="322">
           <cell r="A322">
-            <v>82011301</v>
+            <v>82011322</v>
           </cell>
           <cell r="B322">
-            <v>795</v>
+            <v>998</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323">
-            <v>82011309</v>
+            <v>82011301</v>
           </cell>
           <cell r="B323">
-            <v>1188</v>
+            <v>795</v>
           </cell>
         </row>
         <row r="324">
           <cell r="A324">
-            <v>82011310</v>
+            <v>82011309</v>
           </cell>
           <cell r="B324">
-            <v>1332</v>
+            <v>1188</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325">
-            <v>82011311</v>
+            <v>82011310</v>
           </cell>
           <cell r="B325">
-            <v>1663</v>
+            <v>1332</v>
           </cell>
         </row>
         <row r="326">
           <cell r="A326">
-            <v>82624920</v>
+            <v>82011311</v>
           </cell>
           <cell r="B326">
-            <v>410</v>
+            <v>1663</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327">
-            <v>82624893</v>
+            <v>82624920</v>
           </cell>
           <cell r="B327">
-            <v>756</v>
+            <v>410</v>
           </cell>
         </row>
         <row r="328">
           <cell r="A328">
-            <v>82011305</v>
+            <v>82624893</v>
           </cell>
           <cell r="B328">
-            <v>728</v>
+            <v>756</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329">
-            <v>82011302</v>
+            <v>82011305</v>
           </cell>
           <cell r="B329">
-            <v>998</v>
+            <v>728</v>
           </cell>
         </row>
         <row r="330">
           <cell r="A330">
-            <v>82011312</v>
+            <v>82011302</v>
           </cell>
           <cell r="B330">
-            <v>1130</v>
+            <v>998</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331">
-            <v>82011306</v>
+            <v>82011312</v>
           </cell>
           <cell r="B331">
-            <v>1272</v>
+            <v>1130</v>
           </cell>
         </row>
         <row r="332">
           <cell r="A332">
-            <v>82011319</v>
+            <v>82011306</v>
           </cell>
           <cell r="B332">
-            <v>1534</v>
+            <v>1272</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333">
-            <v>82011313</v>
+            <v>82011319</v>
           </cell>
           <cell r="B333">
-            <v>1682</v>
+            <v>1534</v>
           </cell>
         </row>
         <row r="334">
           <cell r="A334">
-            <v>82011295</v>
+            <v>82011313</v>
           </cell>
           <cell r="B334">
-            <v>496</v>
+            <v>1682</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335">
-            <v>82011314</v>
+            <v>82011295</v>
           </cell>
           <cell r="B335">
-            <v>2561</v>
+            <v>496</v>
           </cell>
         </row>
         <row r="336">
           <cell r="A336">
-            <v>82011298</v>
+            <v>82011314</v>
+          </cell>
+          <cell r="B336">
+            <v>2561</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337">
-            <v>82011303</v>
-          </cell>
-          <cell r="B337">
-            <v>1257</v>
+            <v>82011298</v>
           </cell>
         </row>
         <row r="338">
           <cell r="A338">
-            <v>82011299</v>
+            <v>82011303</v>
           </cell>
           <cell r="B338">
-            <v>1663</v>
+            <v>1257</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339">
-            <v>82011317</v>
+            <v>82011299</v>
           </cell>
           <cell r="B339">
-            <v>998</v>
+            <v>1663</v>
           </cell>
         </row>
         <row r="340">
           <cell r="A340">
-            <v>82011318</v>
+            <v>82011317</v>
           </cell>
           <cell r="B340">
-            <v>1272</v>
+            <v>998</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341">
-            <v>82011321</v>
+            <v>82011318</v>
           </cell>
           <cell r="B341">
-            <v>504</v>
+            <v>1272</v>
           </cell>
         </row>
         <row r="342">
           <cell r="A342">
-            <v>82011300</v>
+            <v>82011321</v>
           </cell>
           <cell r="B342">
-            <v>5108</v>
+            <v>504</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343">
-            <v>82624918</v>
+            <v>82011300</v>
           </cell>
           <cell r="B343">
-            <v>510</v>
+            <v>5108</v>
           </cell>
         </row>
         <row r="344">
           <cell r="A344">
-            <v>82623854</v>
+            <v>82624918</v>
           </cell>
           <cell r="B344">
-            <v>294</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345">
-            <v>82011315</v>
+            <v>82623854</v>
           </cell>
           <cell r="B345">
-            <v>3365</v>
+            <v>294</v>
           </cell>
         </row>
         <row r="346">
           <cell r="A346">
-            <v>82309078</v>
+            <v>82011315</v>
           </cell>
           <cell r="B346">
-            <v>3181</v>
+            <v>3365</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347">
-            <v>82011316</v>
+            <v>82309078</v>
           </cell>
           <cell r="B347">
-            <v>3821</v>
+            <v>3181</v>
           </cell>
         </row>
         <row r="348">
           <cell r="A348">
-            <v>82309082</v>
+            <v>82011316</v>
           </cell>
           <cell r="B348">
-            <v>3542</v>
+            <v>3821</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349">
-            <v>82309109</v>
+            <v>82309082</v>
           </cell>
           <cell r="B349">
-            <v>488</v>
+            <v>3542</v>
           </cell>
         </row>
         <row r="350">
           <cell r="A350">
-            <v>82309105</v>
+            <v>82309109</v>
           </cell>
           <cell r="B350">
-            <v>711</v>
+            <v>488</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351">
-            <v>82011236</v>
+            <v>82309105</v>
           </cell>
           <cell r="B351">
-            <v>710</v>
+            <v>711</v>
           </cell>
         </row>
         <row r="352">
           <cell r="A352">
-            <v>82011225</v>
+            <v>82011236</v>
           </cell>
           <cell r="B352">
-            <v>190</v>
+            <v>710</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353">
-            <v>82011240</v>
+            <v>82011225</v>
           </cell>
           <cell r="B353">
-            <v>968</v>
+            <v>190</v>
           </cell>
         </row>
         <row r="354">
           <cell r="A354">
-            <v>82011228</v>
+            <v>82011240</v>
           </cell>
           <cell r="B354">
-            <v>508</v>
+            <v>968</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355">
-            <v>82011254</v>
+            <v>82011228</v>
           </cell>
           <cell r="B355">
-            <v>968</v>
+            <v>508</v>
           </cell>
         </row>
         <row r="356">
           <cell r="A356">
-            <v>82011233</v>
+            <v>82011254</v>
           </cell>
           <cell r="B356">
-            <v>645</v>
+            <v>968</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357">
-            <v>82011241</v>
+            <v>82011233</v>
           </cell>
           <cell r="B357">
-            <v>1047</v>
+            <v>645</v>
           </cell>
         </row>
         <row r="358">
           <cell r="A358">
-            <v>82011242</v>
+            <v>82011241</v>
           </cell>
           <cell r="B358">
-            <v>1110</v>
+            <v>1047</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359">
-            <v>82011243</v>
+            <v>82011242</v>
           </cell>
           <cell r="B359">
-            <v>1607</v>
+            <v>1110</v>
           </cell>
         </row>
         <row r="360">
           <cell r="A360">
-            <v>82011226</v>
+            <v>82011243</v>
           </cell>
           <cell r="B360">
-            <v>237</v>
+            <v>1607</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361">
-            <v>82011229</v>
+            <v>82011226</v>
           </cell>
           <cell r="B361">
-            <v>661</v>
+            <v>237</v>
           </cell>
         </row>
         <row r="362">
           <cell r="A362">
-            <v>82011237</v>
+            <v>82011229</v>
           </cell>
           <cell r="B362">
-            <v>335</v>
+            <v>661</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363">
-            <v>82011234</v>
+            <v>82011237</v>
           </cell>
           <cell r="B363">
-            <v>877</v>
+            <v>335</v>
           </cell>
         </row>
         <row r="364">
           <cell r="A364">
-            <v>82011244</v>
+            <v>82011234</v>
           </cell>
           <cell r="B364">
-            <v>1251</v>
+            <v>877</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365">
-            <v>82011238</v>
+            <v>82011244</v>
           </cell>
           <cell r="B365">
-            <v>1328</v>
+            <v>1251</v>
           </cell>
         </row>
         <row r="366">
           <cell r="A366">
-            <v>82011251</v>
+            <v>82011238</v>
           </cell>
           <cell r="B366">
-            <v>1551</v>
+            <v>1328</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367">
-            <v>82011245</v>
+            <v>82011251</v>
           </cell>
           <cell r="B367">
-            <v>1656</v>
+            <v>1551</v>
           </cell>
         </row>
         <row r="368">
           <cell r="A368">
-            <v>82011227</v>
+            <v>82011245</v>
           </cell>
           <cell r="B368">
-            <v>278</v>
+            <v>1656</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369">
-            <v>82011246</v>
+            <v>82011227</v>
           </cell>
           <cell r="B369">
-            <v>1822</v>
+            <v>278</v>
           </cell>
         </row>
         <row r="370">
           <cell r="A370">
-            <v>82011230</v>
+            <v>82011246</v>
           </cell>
           <cell r="B370">
-            <v>804</v>
+            <v>1822</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371">
-            <v>82011235</v>
+            <v>82011230</v>
           </cell>
           <cell r="B371">
-            <v>1043</v>
+            <v>804</v>
           </cell>
         </row>
         <row r="372">
           <cell r="A372">
-            <v>82011231</v>
+            <v>82011235</v>
           </cell>
           <cell r="B372">
-            <v>702</v>
+            <v>1043</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373">
-            <v>82011249</v>
+            <v>82011231</v>
           </cell>
           <cell r="B373">
-            <v>507</v>
+            <v>702</v>
           </cell>
         </row>
         <row r="374">
           <cell r="A374">
-            <v>82011250</v>
+            <v>82011249</v>
           </cell>
           <cell r="B374">
-            <v>602</v>
+            <v>507</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375">
-            <v>82011253</v>
+            <v>82011250</v>
           </cell>
           <cell r="B375">
-            <v>400</v>
+            <v>602</v>
           </cell>
         </row>
         <row r="376">
           <cell r="A376">
-            <v>82011232</v>
+            <v>82011253</v>
           </cell>
           <cell r="B376">
-            <v>1957</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377">
-            <v>82011252</v>
+            <v>82011232</v>
           </cell>
           <cell r="B377">
-            <v>294</v>
+            <v>1957</v>
           </cell>
         </row>
         <row r="378">
           <cell r="A378">
-            <v>82011247</v>
+            <v>82011252</v>
           </cell>
           <cell r="B378">
-            <v>2792</v>
+            <v>294</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379">
-            <v>82011248</v>
+            <v>82011247</v>
           </cell>
           <cell r="B379">
-            <v>2810</v>
+            <v>2792</v>
           </cell>
         </row>
         <row r="380">
           <cell r="A380">
-            <v>82350908</v>
+            <v>82011248</v>
           </cell>
           <cell r="B380">
-            <v>1194</v>
+            <v>2810</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381">
-            <v>82351075</v>
+            <v>82350908</v>
           </cell>
           <cell r="B381">
-            <v>305</v>
+            <v>1194</v>
           </cell>
         </row>
         <row r="382">
           <cell r="A382">
-            <v>82350909</v>
+            <v>82351075</v>
           </cell>
           <cell r="B382">
-            <v>1563</v>
+            <v>305</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383">
-            <v>82010343</v>
+            <v>82350909</v>
           </cell>
           <cell r="B383">
-            <v>710</v>
+            <v>1563</v>
           </cell>
         </row>
         <row r="384">
           <cell r="A384">
-            <v>82010332</v>
+            <v>82010343</v>
           </cell>
           <cell r="B384">
-            <v>190</v>
+            <v>710</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385">
-            <v>82010345</v>
+            <v>82010332</v>
           </cell>
           <cell r="B385">
-            <v>1328</v>
+            <v>190</v>
           </cell>
         </row>
         <row r="386">
           <cell r="A386">
-            <v>82010335</v>
+            <v>82010345</v>
           </cell>
           <cell r="B386">
-            <v>511</v>
+            <v>1328</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387">
-            <v>82010361</v>
+            <v>82010335</v>
           </cell>
           <cell r="B387">
-            <v>963</v>
+            <v>511</v>
           </cell>
         </row>
         <row r="388">
           <cell r="A388">
-            <v>82010340</v>
+            <v>82010361</v>
           </cell>
           <cell r="B388">
-            <v>643</v>
+            <v>963</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389">
-            <v>82010348</v>
+            <v>82010340</v>
           </cell>
           <cell r="B389">
-            <v>1047</v>
+            <v>643</v>
           </cell>
         </row>
         <row r="390">
           <cell r="A390">
-            <v>82010349</v>
+            <v>82010348</v>
           </cell>
           <cell r="B390">
-            <v>1110</v>
+            <v>1047</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391">
-            <v>82010350</v>
+            <v>82010349</v>
           </cell>
           <cell r="B391">
-            <v>1607</v>
+            <v>1110</v>
           </cell>
         </row>
         <row r="392">
           <cell r="A392">
-            <v>82010333</v>
+            <v>82010350</v>
           </cell>
           <cell r="B392">
-            <v>237</v>
+            <v>1607</v>
           </cell>
         </row>
         <row r="393">
           <cell r="A393">
-            <v>82010336</v>
+            <v>82010333</v>
           </cell>
           <cell r="B393">
-            <v>661</v>
+            <v>237</v>
           </cell>
         </row>
         <row r="394">
           <cell r="A394">
-            <v>82010344</v>
+            <v>82010336</v>
           </cell>
           <cell r="B394">
-            <v>335</v>
+            <v>661</v>
           </cell>
         </row>
         <row r="395">
           <cell r="A395">
-            <v>82010341</v>
+            <v>82010344</v>
           </cell>
           <cell r="B395">
-            <v>2203</v>
+            <v>335</v>
           </cell>
         </row>
         <row r="396">
           <cell r="A396">
-            <v>82010351</v>
+            <v>82010341</v>
           </cell>
           <cell r="B396">
-            <v>1251</v>
+            <v>2203</v>
           </cell>
         </row>
         <row r="397">
           <cell r="A397">
-            <v>82010345</v>
+            <v>82010351</v>
+          </cell>
+          <cell r="B397">
+            <v>1251</v>
           </cell>
         </row>
         <row r="398">
           <cell r="A398">
-            <v>82010358</v>
-          </cell>
-          <cell r="B398">
-            <v>1551</v>
+            <v>82010345</v>
           </cell>
         </row>
         <row r="399">
           <cell r="A399">
-            <v>82010352</v>
+            <v>82010358</v>
           </cell>
           <cell r="B399">
-            <v>1656</v>
+            <v>1551</v>
           </cell>
         </row>
         <row r="400">
           <cell r="A400">
-            <v>82010334</v>
+            <v>82010352</v>
           </cell>
           <cell r="B400">
-            <v>278</v>
+            <v>1656</v>
           </cell>
         </row>
         <row r="401">
           <cell r="A401">
-            <v>82010352</v>
+            <v>82010334</v>
+          </cell>
+          <cell r="B401">
+            <v>278</v>
           </cell>
         </row>
         <row r="402">
           <cell r="A402">
-            <v>82010337</v>
-          </cell>
-          <cell r="B402">
-            <v>804</v>
+            <v>82010352</v>
           </cell>
         </row>
         <row r="403">
           <cell r="A403">
-            <v>82010342</v>
+            <v>82010337</v>
           </cell>
           <cell r="B403">
-            <v>1043</v>
+            <v>804</v>
           </cell>
         </row>
         <row r="404">
           <cell r="A404">
-            <v>82010338</v>
+            <v>82010342</v>
           </cell>
           <cell r="B404">
-            <v>702</v>
+            <v>1043</v>
           </cell>
         </row>
         <row r="405">
           <cell r="A405">
-            <v>82010356</v>
+            <v>82010338</v>
           </cell>
           <cell r="B405">
-            <v>507</v>
+            <v>702</v>
           </cell>
         </row>
         <row r="406">
           <cell r="A406">
-            <v>82010357</v>
+            <v>82010356</v>
           </cell>
           <cell r="B406">
-            <v>602</v>
+            <v>507</v>
           </cell>
         </row>
         <row r="407">
           <cell r="A407">
-            <v>82010360</v>
+            <v>82010357</v>
           </cell>
           <cell r="B407">
-            <v>400</v>
+            <v>602</v>
           </cell>
         </row>
         <row r="408">
           <cell r="A408">
-            <v>82010339</v>
+            <v>82010360</v>
           </cell>
           <cell r="B408">
-            <v>1957</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="409">
           <cell r="A409">
-            <v>82010359</v>
+            <v>82010339</v>
           </cell>
           <cell r="B409">
-            <v>294</v>
+            <v>1957</v>
           </cell>
         </row>
         <row r="410">
           <cell r="A410">
-            <v>82010354</v>
+            <v>82010359</v>
           </cell>
           <cell r="B410">
-            <v>2792</v>
+            <v>294</v>
           </cell>
         </row>
         <row r="411">
           <cell r="A411">
-            <v>82010355</v>
+            <v>82010354</v>
           </cell>
           <cell r="B411">
-            <v>2810</v>
+            <v>2792</v>
           </cell>
         </row>
         <row r="412">
           <cell r="A412">
-            <v>82351079</v>
+            <v>82010355</v>
           </cell>
           <cell r="B412">
-            <v>1194</v>
+            <v>2810</v>
           </cell>
         </row>
         <row r="413">
           <cell r="A413">
-            <v>82351081</v>
+            <v>82351079</v>
           </cell>
           <cell r="B413">
-            <v>305</v>
+            <v>1194</v>
           </cell>
         </row>
         <row r="414">
           <cell r="A414">
-            <v>82351080</v>
+            <v>82351081</v>
           </cell>
           <cell r="B414">
-            <v>1563</v>
+            <v>305</v>
           </cell>
         </row>
         <row r="415">
           <cell r="A415">
-            <v>82010541</v>
+            <v>82351080</v>
+          </cell>
+          <cell r="B415">
+            <v>1563</v>
           </cell>
         </row>
         <row r="416">
           <cell r="A416">
-            <v>82010530</v>
-          </cell>
-          <cell r="B416">
-            <v>374</v>
+            <v>82010541</v>
           </cell>
         </row>
         <row r="417">
           <cell r="A417">
-            <v>82010545</v>
+            <v>82010530</v>
           </cell>
           <cell r="B417">
-            <v>1574</v>
+            <v>374</v>
           </cell>
         </row>
         <row r="418">
           <cell r="A418">
-            <v>82010533</v>
+            <v>82010545</v>
           </cell>
           <cell r="B418">
-            <v>635</v>
+            <v>1574</v>
           </cell>
         </row>
         <row r="419">
           <cell r="A419">
-            <v>82010559</v>
+            <v>82010533</v>
           </cell>
           <cell r="B419">
-            <v>1574</v>
+            <v>635</v>
           </cell>
         </row>
         <row r="420">
           <cell r="A420">
-            <v>82010538</v>
+            <v>82010559</v>
           </cell>
           <cell r="B420">
-            <v>926</v>
+            <v>1574</v>
           </cell>
         </row>
         <row r="421">
           <cell r="A421">
-            <v>82010546</v>
+            <v>82010538</v>
           </cell>
           <cell r="B421">
-            <v>1993</v>
+            <v>926</v>
           </cell>
         </row>
         <row r="422">
           <cell r="A422">
-            <v>82010547</v>
+            <v>82010546</v>
+          </cell>
+          <cell r="B422">
+            <v>1993</v>
           </cell>
         </row>
         <row r="423">
           <cell r="A423">
-            <v>82010548</v>
+            <v>82010547</v>
           </cell>
         </row>
         <row r="424">
           <cell r="A424">
-            <v>82010531</v>
+            <v>82010548</v>
           </cell>
         </row>
         <row r="425">
           <cell r="A425">
-            <v>82010534</v>
-          </cell>
-          <cell r="B425">
-            <v>892</v>
+            <v>82010531</v>
           </cell>
         </row>
         <row r="426">
           <cell r="A426">
-            <v>82010542</v>
+            <v>82010534</v>
+          </cell>
+          <cell r="B426">
+            <v>892</v>
           </cell>
         </row>
         <row r="427">
           <cell r="A427">
-            <v>82010539</v>
-          </cell>
-          <cell r="B427">
-            <v>1563</v>
+            <v>82010542</v>
           </cell>
         </row>
         <row r="428">
           <cell r="A428">
-            <v>82010549</v>
+            <v>82010539</v>
+          </cell>
+          <cell r="B428">
+            <v>1563</v>
           </cell>
         </row>
         <row r="429">
           <cell r="A429">
-            <v>82010543</v>
+            <v>82010549</v>
           </cell>
         </row>
         <row r="430">
           <cell r="A430">
-            <v>82010556</v>
+            <v>82010543</v>
           </cell>
         </row>
         <row r="431">
           <cell r="A431">
-            <v>82010550</v>
+            <v>82010556</v>
           </cell>
         </row>
         <row r="432">
           <cell r="A432">
-            <v>82010532</v>
+            <v>82010550</v>
           </cell>
         </row>
         <row r="433">
           <cell r="A433">
-            <v>82010551</v>
+            <v>82010532</v>
           </cell>
         </row>
         <row r="434">
           <cell r="A434">
-            <v>82010535</v>
+            <v>82010551</v>
           </cell>
         </row>
         <row r="435">
           <cell r="A435">
-            <v>82010540</v>
-          </cell>
-          <cell r="B435">
-            <v>1753</v>
+            <v>82010535</v>
           </cell>
         </row>
         <row r="436">
           <cell r="A436">
-            <v>82010536</v>
+            <v>82010540</v>
           </cell>
           <cell r="B436">
-            <v>2733</v>
+            <v>1753</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437">
-            <v>82010554</v>
+            <v>82010536</v>
           </cell>
           <cell r="B437">
-            <v>1850</v>
+            <v>2733</v>
           </cell>
         </row>
         <row r="438">
           <cell r="A438">
-            <v>82010543</v>
+            <v>82010554</v>
+          </cell>
+          <cell r="B438">
+            <v>1850</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439">
-            <v>82010558</v>
-          </cell>
-          <cell r="B439">
-            <v>416</v>
+            <v>82010543</v>
           </cell>
         </row>
         <row r="440">
           <cell r="A440">
-            <v>82010537</v>
+            <v>82010558</v>
+          </cell>
+          <cell r="B440">
+            <v>416</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441">
-            <v>82010557</v>
+            <v>82010537</v>
           </cell>
         </row>
         <row r="442">
           <cell r="A442">
-            <v>82010552</v>
-          </cell>
-          <cell r="B442">
-            <v>5045</v>
+            <v>82010557</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443">
-            <v>82010553</v>
+            <v>82010552</v>
+          </cell>
+          <cell r="B443">
+            <v>5045</v>
           </cell>
         </row>
         <row r="444">
           <cell r="A444">
-            <v>82284715</v>
+            <v>82010553</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445">
-            <v>82010212</v>
-          </cell>
-          <cell r="B445">
-            <v>532</v>
+            <v>82284715</v>
           </cell>
         </row>
         <row r="446">
           <cell r="A446">
-            <v>82010201</v>
+            <v>82010212</v>
           </cell>
           <cell r="B446">
-            <v>307</v>
+            <v>532</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447">
-            <v>82010216</v>
+            <v>82010201</v>
           </cell>
           <cell r="B447">
-            <v>658</v>
+            <v>307</v>
           </cell>
         </row>
         <row r="448">
           <cell r="A448">
-            <v>82010204</v>
+            <v>82010216</v>
           </cell>
           <cell r="B448">
-            <v>381</v>
+            <v>658</v>
           </cell>
         </row>
         <row r="449">
           <cell r="A449">
-            <v>82010230</v>
+            <v>82010204</v>
           </cell>
           <cell r="B449">
-            <v>688</v>
+            <v>381</v>
           </cell>
         </row>
         <row r="450">
           <cell r="A450">
-            <v>82010209</v>
+            <v>82010230</v>
           </cell>
           <cell r="B450">
-            <v>458</v>
+            <v>688</v>
           </cell>
         </row>
         <row r="451">
           <cell r="A451">
-            <v>82010217</v>
+            <v>82010209</v>
           </cell>
           <cell r="B451">
-            <v>784</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="452">
           <cell r="A452">
-            <v>82010218</v>
+            <v>82010217</v>
           </cell>
           <cell r="B452">
-            <v>868</v>
+            <v>784</v>
           </cell>
         </row>
         <row r="453">
           <cell r="A453">
-            <v>82010219</v>
+            <v>82010218</v>
           </cell>
           <cell r="B453">
-            <v>1065</v>
+            <v>868</v>
           </cell>
         </row>
         <row r="454">
           <cell r="A454">
-            <v>82010202</v>
+            <v>82010219</v>
           </cell>
           <cell r="B454">
-            <v>350</v>
+            <v>1065</v>
           </cell>
         </row>
         <row r="455">
           <cell r="A455">
-            <v>82010205</v>
+            <v>82010202</v>
           </cell>
           <cell r="B455">
-            <v>452</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="456">
           <cell r="A456">
-            <v>82010213</v>
+            <v>82010205</v>
           </cell>
           <cell r="B456">
-            <v>585</v>
+            <v>452</v>
           </cell>
         </row>
         <row r="457">
           <cell r="A457">
-            <v>82010210</v>
+            <v>82010213</v>
           </cell>
           <cell r="B457">
-            <v>673</v>
+            <v>585</v>
           </cell>
         </row>
         <row r="458">
           <cell r="A458">
-            <v>82010220</v>
+            <v>82010210</v>
           </cell>
           <cell r="B458">
-            <v>792</v>
+            <v>673</v>
           </cell>
         </row>
         <row r="459">
           <cell r="A459">
-            <v>82010214</v>
+            <v>82010220</v>
           </cell>
           <cell r="B459">
-            <v>835</v>
+            <v>792</v>
           </cell>
         </row>
         <row r="460">
           <cell r="A460">
-            <v>82010227</v>
+            <v>82010214</v>
           </cell>
           <cell r="B460">
-            <v>976</v>
+            <v>835</v>
           </cell>
         </row>
         <row r="461">
           <cell r="A461">
-            <v>82010221</v>
+            <v>82010227</v>
           </cell>
           <cell r="B461">
-            <v>1048</v>
+            <v>976</v>
           </cell>
         </row>
         <row r="462">
           <cell r="A462">
-            <v>82010203</v>
+            <v>82010221</v>
           </cell>
           <cell r="B462">
-            <v>398</v>
+            <v>1048</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463">
-            <v>82010222</v>
+            <v>82010203</v>
           </cell>
           <cell r="B463">
-            <v>1027</v>
+            <v>398</v>
           </cell>
         </row>
         <row r="464">
           <cell r="A464">
-            <v>82010206</v>
+            <v>82010222</v>
           </cell>
           <cell r="B464">
-            <v>526</v>
+            <v>1027</v>
           </cell>
         </row>
         <row r="465">
           <cell r="A465">
-            <v>82010211</v>
+            <v>82010206</v>
           </cell>
           <cell r="B465">
-            <v>650</v>
+            <v>526</v>
           </cell>
         </row>
         <row r="466">
           <cell r="A466">
-            <v>82010207</v>
+            <v>82010211</v>
           </cell>
           <cell r="B466">
-            <v>1023</v>
+            <v>650</v>
           </cell>
         </row>
         <row r="467">
           <cell r="A467">
-            <v>82010225</v>
+            <v>82010207</v>
           </cell>
           <cell r="B467">
-            <v>747</v>
+            <v>1023</v>
           </cell>
         </row>
         <row r="468">
           <cell r="A468">
-            <v>82010226</v>
+            <v>82010225</v>
           </cell>
           <cell r="B468">
-            <v>928</v>
+            <v>747</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469">
-            <v>82010229</v>
+            <v>82010226</v>
           </cell>
           <cell r="B469">
-            <v>838</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="470">
           <cell r="A470">
-            <v>82010208</v>
+            <v>82010229</v>
+          </cell>
+          <cell r="B470">
+            <v>838</v>
           </cell>
         </row>
         <row r="471">
           <cell r="A471">
-            <v>82010228</v>
-          </cell>
-          <cell r="B471">
-            <v>542</v>
+            <v>82010208</v>
           </cell>
         </row>
         <row r="472">
           <cell r="A472">
-            <v>82010223</v>
+            <v>82010228</v>
           </cell>
           <cell r="B472">
-            <v>1730</v>
+            <v>542</v>
           </cell>
         </row>
         <row r="473">
           <cell r="A473">
-            <v>82010224</v>
+            <v>82010223</v>
+          </cell>
+          <cell r="B473">
+            <v>1730</v>
           </cell>
         </row>
         <row r="474">
           <cell r="A474">
-            <v>82011487</v>
-          </cell>
-          <cell r="B474">
-            <v>216</v>
+            <v>82010224</v>
           </cell>
         </row>
         <row r="475">
           <cell r="A475">
-            <v>82011476</v>
+            <v>82011487</v>
           </cell>
           <cell r="B475">
-            <v>131</v>
+            <v>216</v>
           </cell>
         </row>
         <row r="476">
           <cell r="A476">
-            <v>82011491</v>
+            <v>82011476</v>
           </cell>
           <cell r="B476">
-            <v>334</v>
+            <v>131</v>
           </cell>
         </row>
         <row r="477">
           <cell r="A477">
-            <v>82676485</v>
+            <v>82011491</v>
           </cell>
           <cell r="B477">
-            <v>238</v>
+            <v>334</v>
           </cell>
         </row>
         <row r="478">
           <cell r="A478">
-            <v>82676501</v>
+            <v>82676485</v>
           </cell>
           <cell r="B478">
-            <v>474</v>
+            <v>238</v>
           </cell>
         </row>
         <row r="479">
           <cell r="A479">
-            <v>82011484</v>
+            <v>82676501</v>
           </cell>
           <cell r="B479">
-            <v>231</v>
+            <v>474</v>
           </cell>
         </row>
         <row r="480">
           <cell r="A480">
-            <v>82011492</v>
+            <v>82011484</v>
           </cell>
           <cell r="B480">
-            <v>431</v>
+            <v>231</v>
           </cell>
         </row>
         <row r="481">
           <cell r="A481">
-            <v>82011493</v>
+            <v>82011492</v>
           </cell>
           <cell r="B481">
-            <v>478</v>
+            <v>431</v>
           </cell>
         </row>
         <row r="482">
           <cell r="A482">
-            <v>82011494</v>
+            <v>82011493</v>
           </cell>
           <cell r="B482">
-            <v>598</v>
+            <v>478</v>
           </cell>
         </row>
         <row r="483">
           <cell r="A483">
-            <v>82011477</v>
+            <v>82011494</v>
           </cell>
           <cell r="B483">
-            <v>160</v>
+            <v>598</v>
           </cell>
         </row>
         <row r="484">
           <cell r="A484">
-            <v>82676487</v>
+            <v>82011477</v>
           </cell>
           <cell r="B484">
-            <v>308</v>
+            <v>160</v>
           </cell>
         </row>
         <row r="485">
           <cell r="A485">
-            <v>82011488</v>
+            <v>82676487</v>
           </cell>
           <cell r="B485">
-            <v>276</v>
+            <v>308</v>
           </cell>
         </row>
         <row r="486">
           <cell r="A486">
-            <v>82011485</v>
+            <v>82011488</v>
           </cell>
           <cell r="B486">
-            <v>737</v>
+            <v>276</v>
           </cell>
         </row>
         <row r="487">
           <cell r="A487">
-            <v>82011495</v>
+            <v>82011485</v>
           </cell>
           <cell r="B487">
-            <v>420</v>
+            <v>737</v>
           </cell>
         </row>
         <row r="488">
           <cell r="A488">
-            <v>82676478</v>
+            <v>82011495</v>
           </cell>
           <cell r="B488">
-            <v>601</v>
+            <v>420</v>
           </cell>
         </row>
         <row r="489">
           <cell r="A489">
-            <v>82011502</v>
+            <v>82676478</v>
           </cell>
           <cell r="B489">
-            <v>544</v>
+            <v>601</v>
           </cell>
         </row>
         <row r="490">
           <cell r="A490">
-            <v>82011496</v>
+            <v>82011502</v>
+          </cell>
+          <cell r="B490">
+            <v>544</v>
           </cell>
         </row>
         <row r="491">
           <cell r="A491">
-            <v>82011478</v>
-          </cell>
-          <cell r="B491">
-            <v>191</v>
+            <v>82011496</v>
           </cell>
         </row>
         <row r="492">
           <cell r="A492">
-            <v>82011497</v>
+            <v>82011478</v>
           </cell>
           <cell r="B492">
-            <v>696</v>
+            <v>191</v>
           </cell>
         </row>
         <row r="493">
           <cell r="A493">
-            <v>82676489</v>
+            <v>82011497</v>
           </cell>
           <cell r="B493">
-            <v>380</v>
+            <v>696</v>
           </cell>
         </row>
         <row r="494">
           <cell r="A494">
-            <v>82676476</v>
+            <v>82676489</v>
           </cell>
           <cell r="B494">
-            <v>504</v>
+            <v>380</v>
           </cell>
         </row>
         <row r="495">
           <cell r="A495">
-            <v>82011482</v>
+            <v>82676476</v>
           </cell>
           <cell r="B495">
-            <v>614</v>
+            <v>504</v>
           </cell>
         </row>
         <row r="496">
           <cell r="A496">
-            <v>82011500</v>
+            <v>82011482</v>
           </cell>
           <cell r="B496">
-            <v>416</v>
+            <v>614</v>
           </cell>
         </row>
         <row r="497">
           <cell r="A497">
-            <v>82011501</v>
+            <v>82011500</v>
+          </cell>
+          <cell r="B497">
+            <v>416</v>
           </cell>
         </row>
         <row r="498">
           <cell r="A498">
-            <v>82011504</v>
-          </cell>
-          <cell r="B498">
-            <v>274</v>
+            <v>82011501</v>
           </cell>
         </row>
         <row r="499">
           <cell r="A499">
-            <v>82011483</v>
+            <v>82011504</v>
           </cell>
           <cell r="B499">
-            <v>1348</v>
+            <v>274</v>
           </cell>
         </row>
         <row r="500">
           <cell r="A500">
-            <v>82011503</v>
+            <v>82011483</v>
           </cell>
           <cell r="B500">
-            <v>195</v>
+            <v>1348</v>
           </cell>
         </row>
         <row r="501">
           <cell r="A501">
-            <v>82011498</v>
+            <v>82011503</v>
           </cell>
           <cell r="B501">
-            <v>737</v>
+            <v>195</v>
           </cell>
         </row>
         <row r="502">
           <cell r="A502">
-            <v>82011499</v>
+            <v>82011498</v>
           </cell>
           <cell r="B502">
-            <v>1124</v>
+            <v>737</v>
           </cell>
         </row>
         <row r="503">
           <cell r="A503">
-            <v>82351077</v>
+            <v>82011499</v>
           </cell>
           <cell r="B503">
-            <v>236</v>
+            <v>1124</v>
           </cell>
         </row>
         <row r="504">
           <cell r="A504">
-            <v>82011457</v>
+            <v>82351077</v>
           </cell>
           <cell r="B504">
-            <v>532</v>
+            <v>236</v>
           </cell>
         </row>
         <row r="505">
           <cell r="A505">
-            <v>82011446</v>
+            <v>82011457</v>
           </cell>
           <cell r="B505">
-            <v>246</v>
+            <v>532</v>
           </cell>
         </row>
         <row r="506">
           <cell r="A506">
-            <v>82011461</v>
+            <v>82011446</v>
           </cell>
           <cell r="B506">
-            <v>658</v>
+            <v>246</v>
           </cell>
         </row>
         <row r="507">
           <cell r="A507">
-            <v>82011449</v>
+            <v>82011461</v>
           </cell>
           <cell r="B507">
-            <v>335</v>
+            <v>658</v>
           </cell>
         </row>
         <row r="508">
           <cell r="A508">
-            <v>82011475</v>
+            <v>82011449</v>
+          </cell>
+          <cell r="B508">
+            <v>335</v>
           </cell>
         </row>
         <row r="509">
           <cell r="A509">
-            <v>82011454</v>
-          </cell>
-          <cell r="B509">
-            <v>435</v>
+            <v>82011475</v>
           </cell>
         </row>
         <row r="510">
           <cell r="A510">
-            <v>82011462</v>
+            <v>82011454</v>
           </cell>
           <cell r="B510">
-            <v>784</v>
+            <v>435</v>
           </cell>
         </row>
         <row r="511">
           <cell r="A511">
-            <v>82011463</v>
+            <v>82011462</v>
           </cell>
           <cell r="B511">
-            <v>868</v>
+            <v>784</v>
           </cell>
         </row>
         <row r="512">
           <cell r="A512">
-            <v>82011464</v>
+            <v>82011463</v>
           </cell>
           <cell r="B512">
-            <v>1065</v>
+            <v>868</v>
           </cell>
         </row>
         <row r="513">
           <cell r="A513">
-            <v>82011447</v>
+            <v>82011464</v>
           </cell>
           <cell r="B513">
-            <v>302</v>
+            <v>1065</v>
           </cell>
         </row>
         <row r="514">
           <cell r="A514">
-            <v>82011450</v>
+            <v>82011447</v>
           </cell>
           <cell r="B514">
-            <v>436</v>
+            <v>302</v>
           </cell>
         </row>
         <row r="515">
           <cell r="A515">
-            <v>82011458</v>
+            <v>82011450</v>
           </cell>
           <cell r="B515">
-            <v>585</v>
+            <v>436</v>
           </cell>
         </row>
         <row r="516">
           <cell r="A516">
-            <v>82011455</v>
+            <v>82011458</v>
           </cell>
           <cell r="B516">
-            <v>1733</v>
+            <v>585</v>
           </cell>
         </row>
         <row r="517">
           <cell r="A517">
-            <v>82011465</v>
+            <v>82011455</v>
           </cell>
           <cell r="B517">
-            <v>792</v>
+            <v>1733</v>
           </cell>
         </row>
         <row r="518">
           <cell r="A518">
-            <v>82011459</v>
+            <v>82011465</v>
+          </cell>
+          <cell r="B518">
+            <v>792</v>
           </cell>
         </row>
         <row r="519">
           <cell r="A519">
-            <v>82011472</v>
+            <v>82011459</v>
           </cell>
         </row>
         <row r="520">
           <cell r="A520">
-            <v>82011466</v>
-          </cell>
-          <cell r="B520">
-            <v>1048</v>
+            <v>82011472</v>
           </cell>
         </row>
         <row r="521">
           <cell r="A521">
-            <v>82011448</v>
+            <v>82011466</v>
           </cell>
           <cell r="B521">
-            <v>361</v>
+            <v>1048</v>
           </cell>
         </row>
         <row r="522">
           <cell r="A522">
-            <v>82011467</v>
+            <v>82011448</v>
           </cell>
           <cell r="B522">
-            <v>1308</v>
+            <v>361</v>
           </cell>
         </row>
         <row r="523">
           <cell r="A523">
-            <v>82011451</v>
+            <v>82011467</v>
           </cell>
           <cell r="B523">
-            <v>536</v>
+            <v>1308</v>
           </cell>
         </row>
         <row r="524">
           <cell r="A524">
-            <v>82011456</v>
+            <v>82011451</v>
           </cell>
           <cell r="B524">
-            <v>708</v>
+            <v>536</v>
           </cell>
         </row>
         <row r="525">
           <cell r="A525">
-            <v>82011452</v>
+            <v>82011456</v>
           </cell>
           <cell r="B525">
-            <v>1023</v>
+            <v>708</v>
           </cell>
         </row>
         <row r="526">
           <cell r="A526">
-            <v>82011470</v>
+            <v>82011452</v>
           </cell>
           <cell r="B526">
-            <v>747</v>
+            <v>1023</v>
           </cell>
         </row>
         <row r="527">
           <cell r="A527">
-            <v>82011471</v>
+            <v>82011470</v>
           </cell>
           <cell r="B527">
-            <v>928</v>
+            <v>747</v>
           </cell>
         </row>
         <row r="528">
           <cell r="A528">
-            <v>82011474</v>
+            <v>82011471</v>
           </cell>
           <cell r="B528">
-            <v>838</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="529">
           <cell r="A529">
-            <v>82011453</v>
+            <v>82011474</v>
+          </cell>
+          <cell r="B529">
+            <v>838</v>
           </cell>
         </row>
         <row r="530">
           <cell r="A530">
-            <v>82011473</v>
-          </cell>
-          <cell r="B530">
-            <v>374</v>
+            <v>82011453</v>
           </cell>
         </row>
         <row r="531">
           <cell r="A531">
-            <v>82011468</v>
+            <v>82011473</v>
           </cell>
           <cell r="B531">
-            <v>1728</v>
+            <v>374</v>
           </cell>
         </row>
         <row r="532">
           <cell r="A532">
-            <v>82011469</v>
+            <v>82011468</v>
           </cell>
           <cell r="B532">
-            <v>2113</v>
+            <v>1728</v>
           </cell>
         </row>
         <row r="533">
           <cell r="A533">
-            <v>82351076</v>
+            <v>82011469</v>
           </cell>
           <cell r="B533">
-            <v>314</v>
+            <v>2113</v>
           </cell>
         </row>
         <row r="534">
           <cell r="A534">
-            <v>82011161</v>
+            <v>82351076</v>
           </cell>
           <cell r="B534">
-            <v>832</v>
+            <v>314</v>
           </cell>
         </row>
         <row r="535">
           <cell r="A535">
-            <v>82011150</v>
+            <v>82011161</v>
           </cell>
           <cell r="B535">
-            <v>492</v>
+            <v>832</v>
           </cell>
         </row>
         <row r="536">
           <cell r="A536">
-            <v>82011165</v>
+            <v>82011150</v>
           </cell>
           <cell r="B536">
-            <v>1474</v>
+            <v>492</v>
           </cell>
         </row>
         <row r="537">
           <cell r="A537">
-            <v>82011153</v>
+            <v>82011165</v>
           </cell>
           <cell r="B537">
-            <v>574</v>
+            <v>1474</v>
           </cell>
         </row>
         <row r="538">
           <cell r="A538">
-            <v>82011179</v>
+            <v>82011153</v>
           </cell>
           <cell r="B538">
-            <v>1450</v>
+            <v>574</v>
           </cell>
         </row>
         <row r="539">
           <cell r="A539">
-            <v>82011158</v>
+            <v>82011179</v>
           </cell>
           <cell r="B539">
-            <v>812</v>
+            <v>1450</v>
           </cell>
         </row>
         <row r="540">
           <cell r="A540">
-            <v>82011166</v>
+            <v>82011158</v>
           </cell>
           <cell r="B540">
-            <v>1737</v>
+            <v>812</v>
           </cell>
         </row>
         <row r="541">
           <cell r="A541">
-            <v>82011167</v>
+            <v>82011166</v>
           </cell>
           <cell r="B541">
-            <v>1520</v>
+            <v>1737</v>
           </cell>
         </row>
         <row r="542">
           <cell r="A542">
-            <v>82011168</v>
+            <v>82011167</v>
           </cell>
           <cell r="B542">
-            <v>2208</v>
+            <v>1520</v>
           </cell>
         </row>
         <row r="543">
           <cell r="A543">
-            <v>82011151</v>
+            <v>82011168</v>
           </cell>
           <cell r="B543">
-            <v>477</v>
+            <v>2208</v>
           </cell>
         </row>
         <row r="544">
           <cell r="A544">
-            <v>82011154</v>
+            <v>82011151</v>
           </cell>
           <cell r="B544">
-            <v>822</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="545">
           <cell r="A545">
-            <v>82011162</v>
+            <v>82011154</v>
           </cell>
           <cell r="B545">
-            <v>963</v>
+            <v>822</v>
           </cell>
         </row>
         <row r="546">
           <cell r="A546">
-            <v>82011159</v>
+            <v>82011162</v>
           </cell>
           <cell r="B546">
-            <v>1150</v>
+            <v>963</v>
           </cell>
         </row>
         <row r="547">
           <cell r="A547">
-            <v>82011169</v>
+            <v>82011159</v>
           </cell>
           <cell r="B547">
-            <v>1474</v>
+            <v>1150</v>
           </cell>
         </row>
         <row r="548">
           <cell r="A548">
-            <v>82011163</v>
+            <v>82011169</v>
           </cell>
           <cell r="B548">
-            <v>1488</v>
+            <v>1474</v>
           </cell>
         </row>
         <row r="549">
           <cell r="A549">
-            <v>82011176</v>
+            <v>82011163</v>
           </cell>
           <cell r="B549">
-            <v>1825</v>
+            <v>1488</v>
           </cell>
         </row>
         <row r="550">
           <cell r="A550">
-            <v>82011170</v>
+            <v>82011176</v>
           </cell>
           <cell r="B550">
-            <v>2247</v>
+            <v>1825</v>
           </cell>
         </row>
         <row r="551">
           <cell r="A551">
-            <v>82011152</v>
+            <v>82011170</v>
           </cell>
           <cell r="B551">
-            <v>620</v>
+            <v>2247</v>
           </cell>
         </row>
         <row r="552">
           <cell r="A552">
-            <v>82011171</v>
+            <v>82011152</v>
           </cell>
           <cell r="B552">
-            <v>2811</v>
+            <v>620</v>
           </cell>
         </row>
         <row r="553">
           <cell r="A553">
-            <v>82011155</v>
+            <v>82011171</v>
           </cell>
           <cell r="B553">
-            <v>1068</v>
+            <v>2811</v>
           </cell>
         </row>
         <row r="554">
           <cell r="A554">
-            <v>82011160</v>
+            <v>82011155</v>
           </cell>
           <cell r="B554">
-            <v>1507</v>
+            <v>1068</v>
           </cell>
         </row>
         <row r="555">
           <cell r="A555">
-            <v>82011156</v>
+            <v>82011160</v>
           </cell>
           <cell r="B555">
-            <v>2172</v>
+            <v>1507</v>
           </cell>
         </row>
         <row r="556">
           <cell r="A556">
-            <v>82011174</v>
+            <v>82011156</v>
           </cell>
           <cell r="B556">
-            <v>1433</v>
+            <v>2172</v>
           </cell>
         </row>
         <row r="557">
           <cell r="A557">
-            <v>82011175</v>
+            <v>82011174</v>
           </cell>
           <cell r="B557">
-            <v>1615</v>
+            <v>1433</v>
           </cell>
         </row>
         <row r="558">
           <cell r="A558">
-            <v>82011178</v>
+            <v>82011175</v>
           </cell>
           <cell r="B558">
-            <v>468</v>
+            <v>1615</v>
           </cell>
         </row>
         <row r="559">
           <cell r="A559">
-            <v>82011157</v>
+            <v>82011178</v>
           </cell>
           <cell r="B559">
-            <v>5735</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="560">
           <cell r="A560">
-            <v>82011177</v>
+            <v>82011157</v>
           </cell>
           <cell r="B560">
-            <v>588</v>
+            <v>5735</v>
           </cell>
         </row>
         <row r="561">
           <cell r="A561">
-            <v>82011172</v>
+            <v>82011177</v>
           </cell>
           <cell r="B561">
-            <v>3898</v>
+            <v>588</v>
           </cell>
         </row>
         <row r="562">
           <cell r="A562">
-            <v>82011173</v>
+            <v>82011172</v>
           </cell>
           <cell r="B562">
-            <v>4674</v>
+            <v>3898</v>
           </cell>
         </row>
         <row r="563">
           <cell r="A563">
-            <v>82355487</v>
+            <v>82011173</v>
           </cell>
           <cell r="B563">
-            <v>428</v>
+            <v>4674</v>
           </cell>
         </row>
         <row r="564">
           <cell r="A564">
-            <v>82011071</v>
+            <v>82355487</v>
           </cell>
           <cell r="B564">
-            <v>788</v>
+            <v>428</v>
           </cell>
         </row>
         <row r="565">
           <cell r="A565">
-            <v>82011060</v>
+            <v>82011071</v>
           </cell>
           <cell r="B565">
-            <v>350</v>
+            <v>788</v>
           </cell>
         </row>
         <row r="566">
           <cell r="A566">
-            <v>82011075</v>
+            <v>82011060</v>
           </cell>
           <cell r="B566">
-            <v>1318</v>
+            <v>350</v>
           </cell>
         </row>
         <row r="567">
           <cell r="A567">
-            <v>82011063</v>
+            <v>82011075</v>
           </cell>
           <cell r="B567">
-            <v>603</v>
+            <v>1318</v>
           </cell>
         </row>
         <row r="568">
           <cell r="A568">
-            <v>82011089</v>
+            <v>82011063</v>
           </cell>
           <cell r="B568">
-            <v>1422</v>
+            <v>603</v>
           </cell>
         </row>
         <row r="569">
           <cell r="A569">
-            <v>82011068</v>
+            <v>82011089</v>
           </cell>
           <cell r="B569">
-            <v>868</v>
+            <v>1422</v>
           </cell>
         </row>
         <row r="570">
           <cell r="A570">
-            <v>82011076</v>
+            <v>82011068</v>
           </cell>
           <cell r="B570">
-            <v>1574</v>
+            <v>868</v>
           </cell>
         </row>
         <row r="571">
           <cell r="A571">
-            <v>82011077</v>
+            <v>82011076</v>
           </cell>
           <cell r="B571">
-            <v>2452</v>
+            <v>1574</v>
           </cell>
         </row>
         <row r="572">
           <cell r="A572">
-            <v>82011078</v>
+            <v>82011077</v>
           </cell>
           <cell r="B572">
-            <v>2398</v>
+            <v>2452</v>
           </cell>
         </row>
         <row r="573">
           <cell r="A573">
-            <v>82011061</v>
+            <v>82011078</v>
           </cell>
           <cell r="B573">
-            <v>481</v>
+            <v>2398</v>
           </cell>
         </row>
         <row r="574">
           <cell r="A574">
-            <v>82011064</v>
+            <v>82011061</v>
           </cell>
           <cell r="B574">
-            <v>858</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="575">
           <cell r="A575">
-            <v>82011072</v>
+            <v>82011064</v>
           </cell>
           <cell r="B575">
-            <v>1428</v>
+            <v>858</v>
           </cell>
         </row>
         <row r="576">
           <cell r="A576">
-            <v>82011069</v>
+            <v>82011072</v>
           </cell>
           <cell r="B576">
-            <v>1296</v>
+            <v>1428</v>
           </cell>
         </row>
         <row r="577">
           <cell r="A577">
-            <v>82011079</v>
+            <v>82011069</v>
           </cell>
           <cell r="B577">
-            <v>1574</v>
+            <v>1296</v>
           </cell>
         </row>
         <row r="578">
           <cell r="A578">
-            <v>82011073</v>
+            <v>82011079</v>
           </cell>
           <cell r="B578">
-            <v>1840</v>
+            <v>1574</v>
           </cell>
         </row>
         <row r="579">
           <cell r="A579">
-            <v>82011086</v>
+            <v>82011073</v>
           </cell>
           <cell r="B579">
-            <v>2155</v>
+            <v>1840</v>
           </cell>
         </row>
         <row r="580">
           <cell r="A580">
-            <v>82011080</v>
+            <v>82011086</v>
           </cell>
           <cell r="B580">
-            <v>2962</v>
+            <v>2155</v>
           </cell>
         </row>
         <row r="581">
           <cell r="A581">
-            <v>82011062</v>
+            <v>82011080</v>
           </cell>
           <cell r="B581">
-            <v>620</v>
+            <v>2962</v>
           </cell>
         </row>
         <row r="582">
           <cell r="A582">
-            <v>82011081</v>
+            <v>82011062</v>
           </cell>
           <cell r="B582">
-            <v>3244</v>
+            <v>620</v>
           </cell>
         </row>
         <row r="583">
           <cell r="A583">
-            <v>82011065</v>
+            <v>82011081</v>
           </cell>
           <cell r="B583">
-            <v>1124</v>
+            <v>3244</v>
           </cell>
         </row>
         <row r="584">
           <cell r="A584">
-            <v>82011070</v>
+            <v>82011065</v>
           </cell>
           <cell r="B584">
-            <v>1662</v>
+            <v>1124</v>
           </cell>
         </row>
         <row r="585">
           <cell r="A585">
-            <v>82011066</v>
+            <v>82011070</v>
           </cell>
           <cell r="B585">
-            <v>2265</v>
+            <v>1662</v>
           </cell>
         </row>
         <row r="586">
           <cell r="A586">
-            <v>82011084</v>
+            <v>82011066</v>
           </cell>
           <cell r="B586">
-            <v>1497</v>
+            <v>2265</v>
           </cell>
         </row>
         <row r="587">
           <cell r="A587">
-            <v>82011085</v>
+            <v>82011084</v>
           </cell>
           <cell r="B587">
-            <v>1938</v>
+            <v>1497</v>
           </cell>
         </row>
         <row r="588">
           <cell r="A588">
-            <v>82011088</v>
+            <v>82011085</v>
           </cell>
           <cell r="B588">
-            <v>1284</v>
+            <v>1938</v>
           </cell>
         </row>
         <row r="589">
           <cell r="A589">
-            <v>82011067</v>
+            <v>82011088</v>
           </cell>
           <cell r="B589">
-            <v>6144</v>
+            <v>1284</v>
           </cell>
         </row>
         <row r="590">
           <cell r="A590">
-            <v>82011087</v>
+            <v>82011067</v>
           </cell>
           <cell r="B590">
-            <v>724</v>
+            <v>6144</v>
           </cell>
         </row>
         <row r="591">
           <cell r="A591">
-            <v>82011082</v>
+            <v>82011087</v>
           </cell>
           <cell r="B591">
-            <v>5096</v>
+            <v>724</v>
           </cell>
         </row>
         <row r="592">
           <cell r="A592">
-            <v>82011083</v>
+            <v>82011082</v>
           </cell>
           <cell r="B592">
-            <v>5062</v>
+            <v>5096</v>
           </cell>
         </row>
         <row r="593">
           <cell r="A593">
-            <v>82284712</v>
+            <v>82011083</v>
           </cell>
           <cell r="B593">
-            <v>1375</v>
+            <v>5062</v>
           </cell>
         </row>
         <row r="594">
           <cell r="A594">
-            <v>82011101</v>
+            <v>82284712</v>
           </cell>
           <cell r="B594">
-            <v>668</v>
+            <v>1375</v>
           </cell>
         </row>
         <row r="595">
           <cell r="A595">
-            <v>82011090</v>
+            <v>82011101</v>
           </cell>
           <cell r="B595">
-            <v>295</v>
+            <v>668</v>
           </cell>
         </row>
         <row r="596">
           <cell r="A596">
-            <v>82011105</v>
+            <v>82011090</v>
           </cell>
           <cell r="B596">
-            <v>1128</v>
+            <v>295</v>
           </cell>
         </row>
         <row r="597">
           <cell r="A597">
-            <v>82011093</v>
+            <v>82011105</v>
           </cell>
           <cell r="B597">
-            <v>508</v>
+            <v>1128</v>
           </cell>
         </row>
         <row r="598">
           <cell r="A598">
-            <v>82011119</v>
+            <v>82011093</v>
           </cell>
           <cell r="B598">
-            <v>1128</v>
+            <v>508</v>
           </cell>
         </row>
         <row r="599">
           <cell r="A599">
-            <v>82011098</v>
+            <v>82011119</v>
           </cell>
           <cell r="B599">
-            <v>732</v>
+            <v>1128</v>
           </cell>
         </row>
         <row r="600">
           <cell r="A600">
-            <v>82011106</v>
+            <v>82011098</v>
           </cell>
           <cell r="B600">
-            <v>1800</v>
+            <v>732</v>
           </cell>
         </row>
         <row r="601">
           <cell r="A601">
-            <v>82011107</v>
+            <v>82011106</v>
           </cell>
           <cell r="B601">
-            <v>1556</v>
+            <v>1800</v>
           </cell>
         </row>
         <row r="602">
           <cell r="A602">
-            <v>82011108</v>
+            <v>82011107</v>
           </cell>
           <cell r="B602">
-            <v>1851</v>
+            <v>1556</v>
           </cell>
         </row>
         <row r="603">
           <cell r="A603">
-            <v>82011091</v>
+            <v>82011108</v>
           </cell>
           <cell r="B603">
-            <v>405</v>
+            <v>1851</v>
           </cell>
         </row>
         <row r="604">
           <cell r="A604">
-            <v>82011094</v>
+            <v>82011091</v>
           </cell>
           <cell r="B604">
-            <v>720</v>
+            <v>405</v>
           </cell>
         </row>
         <row r="605">
           <cell r="A605">
-            <v>82011102</v>
+            <v>82011094</v>
           </cell>
           <cell r="B605">
-            <v>806</v>
+            <v>720</v>
           </cell>
         </row>
         <row r="606">
           <cell r="A606">
-            <v>82011099</v>
+            <v>82011102</v>
           </cell>
           <cell r="B606">
-            <v>1113</v>
+            <v>806</v>
           </cell>
         </row>
         <row r="607">
           <cell r="A607">
-            <v>82011109</v>
+            <v>82011099</v>
           </cell>
           <cell r="B607">
-            <v>1270</v>
+            <v>1113</v>
           </cell>
         </row>
         <row r="608">
           <cell r="A608">
-            <v>82011103</v>
+            <v>82011109</v>
           </cell>
           <cell r="B608">
-            <v>1518</v>
+            <v>1270</v>
           </cell>
         </row>
         <row r="609">
           <cell r="A609">
-            <v>82011116</v>
+            <v>82011103</v>
           </cell>
           <cell r="B609">
-            <v>1800</v>
+            <v>1518</v>
           </cell>
         </row>
         <row r="610">
           <cell r="A610">
-            <v>82011110</v>
+            <v>82011116</v>
           </cell>
           <cell r="B610">
-            <v>1817</v>
+            <v>1800</v>
           </cell>
         </row>
         <row r="611">
           <cell r="A611">
-            <v>82011092</v>
+            <v>82011110</v>
           </cell>
           <cell r="B611">
-            <v>522</v>
+            <v>1817</v>
           </cell>
         </row>
         <row r="612">
           <cell r="A612">
-            <v>82011111</v>
+            <v>82011092</v>
           </cell>
           <cell r="B612">
-            <v>2726</v>
+            <v>522</v>
           </cell>
         </row>
         <row r="613">
           <cell r="A613">
-            <v>82011095</v>
+            <v>82011111</v>
           </cell>
           <cell r="B613">
-            <v>944</v>
+            <v>2726</v>
           </cell>
         </row>
         <row r="614">
           <cell r="A614">
-            <v>82011100</v>
+            <v>82011095</v>
           </cell>
           <cell r="B614">
-            <v>1397</v>
+            <v>944</v>
           </cell>
         </row>
         <row r="615">
           <cell r="A615">
-            <v>82011096</v>
+            <v>82011100</v>
           </cell>
           <cell r="B615">
-            <v>1718</v>
+            <v>1397</v>
           </cell>
         </row>
         <row r="616">
           <cell r="A616">
-            <v>82011114</v>
+            <v>82011096</v>
           </cell>
           <cell r="B616">
-            <v>1210</v>
+            <v>1718</v>
           </cell>
         </row>
         <row r="617">
           <cell r="A617">
-            <v>82011115</v>
+            <v>82011114</v>
           </cell>
           <cell r="B617">
-            <v>1480</v>
+            <v>1210</v>
           </cell>
         </row>
         <row r="618">
           <cell r="A618">
-            <v>82011118</v>
+            <v>82011115</v>
           </cell>
           <cell r="B618">
-            <v>613</v>
+            <v>1480</v>
           </cell>
         </row>
         <row r="619">
           <cell r="A619">
-            <v>82011097</v>
+            <v>82011118</v>
           </cell>
           <cell r="B619">
-            <v>5165</v>
+            <v>613</v>
           </cell>
         </row>
         <row r="620">
           <cell r="A620">
-            <v>82011117</v>
+            <v>82011097</v>
           </cell>
           <cell r="B620">
-            <v>610</v>
+            <v>5165</v>
           </cell>
         </row>
         <row r="621">
           <cell r="A621">
-            <v>82011112</v>
+            <v>82011117</v>
           </cell>
           <cell r="B621">
-            <v>3608</v>
+            <v>610</v>
           </cell>
         </row>
         <row r="622">
           <cell r="A622">
-            <v>82011113</v>
+            <v>82011112</v>
           </cell>
           <cell r="B622">
-            <v>4256</v>
+            <v>3608</v>
           </cell>
         </row>
         <row r="623">
           <cell r="A623">
-            <v>82284713</v>
+            <v>82011113</v>
           </cell>
           <cell r="B623">
-            <v>1430</v>
+            <v>4256</v>
           </cell>
         </row>
         <row r="624">
           <cell r="A624">
-            <v>82011131</v>
+            <v>82284713</v>
           </cell>
           <cell r="B624">
-            <v>880</v>
+            <v>1430</v>
           </cell>
         </row>
         <row r="625">
           <cell r="A625">
-            <v>82011120</v>
+            <v>82011131</v>
           </cell>
           <cell r="B625">
-            <v>314</v>
+            <v>880</v>
           </cell>
         </row>
         <row r="626">
           <cell r="A626">
-            <v>82011135</v>
+            <v>82011120</v>
           </cell>
           <cell r="B626">
-            <v>1357</v>
+            <v>314</v>
           </cell>
         </row>
         <row r="627">
           <cell r="A627">
-            <v>82011123</v>
+            <v>82011135</v>
           </cell>
           <cell r="B627">
-            <v>538</v>
+            <v>1357</v>
           </cell>
         </row>
         <row r="628">
           <cell r="A628">
-            <v>82011149</v>
+            <v>82011123</v>
           </cell>
           <cell r="B628">
-            <v>1575</v>
+            <v>538</v>
           </cell>
         </row>
         <row r="629">
           <cell r="A629">
-            <v>82011128</v>
+            <v>82011149</v>
           </cell>
           <cell r="B629">
-            <v>771</v>
+            <v>1575</v>
           </cell>
         </row>
         <row r="630">
           <cell r="A630">
-            <v>82011146</v>
+            <v>82011128</v>
           </cell>
           <cell r="B630">
-            <v>1591</v>
+            <v>771</v>
           </cell>
         </row>
         <row r="631">
           <cell r="A631">
-            <v>82011137</v>
+            <v>82011146</v>
           </cell>
           <cell r="B631">
             <v>1591</v>
@@ -8138,2028 +8137,426 @@
         </row>
         <row r="632">
           <cell r="A632">
-            <v>82011138</v>
+            <v>82011137</v>
           </cell>
           <cell r="B632">
-            <v>2312</v>
+            <v>1591</v>
           </cell>
         </row>
         <row r="633">
           <cell r="A633">
-            <v>82011121</v>
+            <v>82011138</v>
           </cell>
           <cell r="B633">
-            <v>432</v>
+            <v>2312</v>
           </cell>
         </row>
         <row r="634">
           <cell r="A634">
-            <v>82011124</v>
+            <v>82011121</v>
           </cell>
           <cell r="B634">
-            <v>765</v>
+            <v>432</v>
           </cell>
         </row>
         <row r="635">
           <cell r="A635">
-            <v>82011132</v>
+            <v>82011124</v>
           </cell>
           <cell r="B635">
-            <v>1158</v>
+            <v>765</v>
           </cell>
         </row>
         <row r="636">
           <cell r="A636">
-            <v>82011129</v>
+            <v>82011132</v>
           </cell>
           <cell r="B636">
-            <v>1113</v>
+            <v>1158</v>
           </cell>
         </row>
         <row r="637">
           <cell r="A637">
-            <v>82011139</v>
+            <v>82011129</v>
           </cell>
           <cell r="B637">
-            <v>1523</v>
+            <v>1113</v>
           </cell>
         </row>
         <row r="638">
           <cell r="A638">
-            <v>82011133</v>
+            <v>82011139</v>
           </cell>
           <cell r="B638">
-            <v>1674</v>
+            <v>1523</v>
           </cell>
         </row>
         <row r="639">
           <cell r="A639">
-            <v>82011136</v>
+            <v>82011133</v>
           </cell>
           <cell r="B639">
-            <v>1910</v>
+            <v>1674</v>
           </cell>
         </row>
         <row r="640">
           <cell r="A640">
-            <v>82011140</v>
+            <v>82011136</v>
           </cell>
           <cell r="B640">
-            <v>2662</v>
+            <v>1910</v>
           </cell>
         </row>
         <row r="641">
           <cell r="A641">
-            <v>82011122</v>
+            <v>82011140</v>
           </cell>
           <cell r="B641">
-            <v>553</v>
+            <v>2662</v>
           </cell>
         </row>
         <row r="642">
           <cell r="A642">
-            <v>82011141</v>
+            <v>82011122</v>
           </cell>
           <cell r="B642">
-            <v>2895</v>
+            <v>553</v>
           </cell>
         </row>
         <row r="643">
           <cell r="A643">
-            <v>82011125</v>
+            <v>82011141</v>
           </cell>
           <cell r="B643">
-            <v>1005</v>
+            <v>2895</v>
           </cell>
         </row>
         <row r="644">
           <cell r="A644">
-            <v>82011130</v>
+            <v>82011125</v>
           </cell>
           <cell r="B644">
-            <v>1480</v>
+            <v>1005</v>
           </cell>
         </row>
         <row r="645">
           <cell r="A645">
-            <v>82011126</v>
+            <v>82011130</v>
           </cell>
           <cell r="B645">
-            <v>2608</v>
+            <v>1480</v>
           </cell>
         </row>
         <row r="646">
           <cell r="A646">
-            <v>82011144</v>
+            <v>82011126</v>
           </cell>
           <cell r="B646">
-            <v>1664</v>
+            <v>2608</v>
           </cell>
         </row>
         <row r="647">
           <cell r="A647">
-            <v>82011145</v>
+            <v>82011144</v>
           </cell>
           <cell r="B647">
-            <v>2186</v>
+            <v>1664</v>
           </cell>
         </row>
         <row r="648">
           <cell r="A648">
-            <v>82011148</v>
+            <v>82011145</v>
           </cell>
           <cell r="B648">
-            <v>487</v>
+            <v>2186</v>
           </cell>
         </row>
         <row r="649">
           <cell r="A649">
-            <v>82011127</v>
+            <v>82011148</v>
           </cell>
           <cell r="B649">
-            <v>5483</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="650">
           <cell r="A650">
-            <v>82011147</v>
+            <v>82011127</v>
           </cell>
           <cell r="B650">
-            <v>644</v>
+            <v>5483</v>
           </cell>
         </row>
         <row r="651">
           <cell r="A651">
-            <v>82011142</v>
+            <v>82011147</v>
           </cell>
           <cell r="B651">
-            <v>5010</v>
+            <v>644</v>
           </cell>
         </row>
         <row r="652">
           <cell r="A652">
-            <v>82011143</v>
+            <v>82011142</v>
           </cell>
           <cell r="B652">
-            <v>4515</v>
+            <v>5010</v>
           </cell>
         </row>
         <row r="653">
           <cell r="A653">
-            <v>82284714</v>
+            <v>82011143</v>
           </cell>
           <cell r="B653">
-            <v>1363</v>
+            <v>4515</v>
           </cell>
         </row>
         <row r="654">
           <cell r="A654">
-            <v>82011402</v>
+            <v>82284714</v>
           </cell>
           <cell r="B654">
-            <v>623</v>
+            <v>1363</v>
           </cell>
         </row>
         <row r="655">
           <cell r="A655">
-            <v>82011381</v>
+            <v>82011402</v>
           </cell>
           <cell r="B655">
-            <v>330</v>
+            <v>623</v>
           </cell>
         </row>
         <row r="656">
           <cell r="A656">
-            <v>82011389</v>
+            <v>82011381</v>
           </cell>
           <cell r="B656">
-            <v>1228</v>
+            <v>330</v>
           </cell>
         </row>
         <row r="657">
           <cell r="A657">
-            <v>82011384</v>
+            <v>82011389</v>
           </cell>
           <cell r="B657">
-            <v>604</v>
+            <v>1228</v>
           </cell>
         </row>
         <row r="658">
           <cell r="A658">
-            <v>82011391</v>
+            <v>82011384</v>
           </cell>
           <cell r="B658">
-            <v>1351</v>
+            <v>604</v>
           </cell>
         </row>
         <row r="659">
           <cell r="A659">
-            <v>82011394</v>
+            <v>82011391</v>
           </cell>
           <cell r="B659">
-            <v>885</v>
+            <v>1351</v>
           </cell>
         </row>
         <row r="660">
           <cell r="A660">
-            <v>82011390</v>
+            <v>82011394</v>
           </cell>
           <cell r="B660">
-            <v>1632</v>
+            <v>885</v>
           </cell>
         </row>
         <row r="661">
           <cell r="A661">
-            <v>82011392</v>
+            <v>82011390</v>
           </cell>
           <cell r="B661">
-            <v>1834</v>
+            <v>1632</v>
           </cell>
         </row>
         <row r="662">
           <cell r="A662">
-            <v>82011393</v>
+            <v>82011392</v>
           </cell>
           <cell r="B662">
-            <v>2508</v>
+            <v>1834</v>
           </cell>
         </row>
         <row r="663">
           <cell r="A663">
-            <v>82011382</v>
+            <v>82011393</v>
           </cell>
           <cell r="B663">
-            <v>464</v>
+            <v>2508</v>
           </cell>
         </row>
         <row r="664">
           <cell r="A664">
-            <v>82011385</v>
+            <v>82011382</v>
           </cell>
           <cell r="B664">
-            <v>872</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="665">
           <cell r="A665">
-            <v>82011403</v>
+            <v>82011385</v>
           </cell>
           <cell r="B665">
-            <v>812</v>
+            <v>872</v>
           </cell>
         </row>
         <row r="666">
           <cell r="A666">
-            <v>82011400</v>
+            <v>82011403</v>
           </cell>
           <cell r="B666">
-            <v>1282</v>
+            <v>812</v>
           </cell>
         </row>
         <row r="667">
           <cell r="A667">
-            <v>82011395</v>
+            <v>82011400</v>
           </cell>
           <cell r="B667">
-            <v>1607</v>
+            <v>1282</v>
           </cell>
         </row>
         <row r="668">
           <cell r="A668">
-            <v>82011404</v>
+            <v>82011395</v>
           </cell>
           <cell r="B668">
-            <v>1766</v>
+            <v>1607</v>
           </cell>
         </row>
         <row r="669">
           <cell r="A669">
-            <v>82011396</v>
+            <v>82011404</v>
           </cell>
           <cell r="B669">
-            <v>2137</v>
+            <v>1766</v>
           </cell>
         </row>
         <row r="670">
           <cell r="A670">
-            <v>82011397</v>
+            <v>82011396</v>
           </cell>
           <cell r="B670">
-            <v>2402</v>
+            <v>2137</v>
           </cell>
         </row>
         <row r="671">
           <cell r="A671">
-            <v>82011383</v>
+            <v>82011397</v>
           </cell>
           <cell r="B671">
-            <v>602</v>
+            <v>2402</v>
           </cell>
         </row>
         <row r="672">
           <cell r="A672">
-            <v>82011398</v>
+            <v>82011383</v>
           </cell>
           <cell r="B672">
-            <v>3371</v>
+            <v>602</v>
           </cell>
         </row>
         <row r="673">
           <cell r="A673">
-            <v>82011386</v>
+            <v>82011398</v>
           </cell>
           <cell r="B673">
-            <v>1150</v>
+            <v>3371</v>
           </cell>
         </row>
         <row r="674">
           <cell r="A674">
-            <v>82011401</v>
+            <v>82011386</v>
           </cell>
           <cell r="B674">
-            <v>1712</v>
+            <v>1150</v>
           </cell>
         </row>
         <row r="675">
           <cell r="A675">
-            <v>82011387</v>
+            <v>82011401</v>
           </cell>
           <cell r="B675">
-            <v>2290</v>
+            <v>1712</v>
           </cell>
         </row>
         <row r="676">
           <cell r="A676">
-            <v>82011406</v>
+            <v>82011387</v>
           </cell>
           <cell r="B676">
-            <v>1466</v>
+            <v>2290</v>
           </cell>
         </row>
         <row r="677">
           <cell r="A677">
-            <v>82011407</v>
+            <v>82011406</v>
           </cell>
           <cell r="B677">
-            <v>1921</v>
+            <v>1466</v>
           </cell>
         </row>
         <row r="678">
           <cell r="A678">
-            <v>82011409</v>
+            <v>82011407</v>
           </cell>
           <cell r="B678">
-            <v>540</v>
+            <v>1921</v>
           </cell>
         </row>
         <row r="679">
           <cell r="A679">
-            <v>82011388</v>
+            <v>82011409</v>
           </cell>
           <cell r="B679">
-            <v>6611</v>
+            <v>540</v>
           </cell>
         </row>
         <row r="680">
           <cell r="A680">
-            <v>82011408</v>
+            <v>82011388</v>
           </cell>
           <cell r="B680">
-            <v>596</v>
+            <v>6611</v>
           </cell>
         </row>
         <row r="681">
           <cell r="A681">
-            <v>82623851</v>
+            <v>82011408</v>
           </cell>
           <cell r="B681">
-            <v>353</v>
+            <v>596</v>
           </cell>
         </row>
         <row r="682">
           <cell r="A682">
-            <v>82011399</v>
+            <v>82623851</v>
           </cell>
           <cell r="B682">
-            <v>4531</v>
+            <v>353</v>
           </cell>
         </row>
         <row r="683">
           <cell r="A683">
+            <v>82011399</v>
+          </cell>
+          <cell r="B683">
+            <v>4531</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="A684">
             <v>82309112</v>
           </cell>
-          <cell r="B683">
+          <cell r="B684">
             <v>417</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист 1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>товар</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>штрих-код</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>название</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>стм</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>гамма</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>AVS</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>топ</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>em</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>поставщик</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>название_поставщика</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>доступный_запас</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>цена</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>82011293</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>3276000602958</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 40x12.8 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I2">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K2">
-            <v>4</v>
-          </cell>
-          <cell r="L2">
-            <v>276</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>82011294</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>3276000602965</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 60x12.8 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I3">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K3">
-            <v>3</v>
-          </cell>
-          <cell r="L3">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>82011295</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>3276000602972</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 80x12.8 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I4">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K4">
-            <v>6</v>
-          </cell>
-          <cell r="L4">
-            <v>496</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>82011296</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>3276000602989</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 40x25.6 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I5">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K5">
-            <v>5</v>
-          </cell>
-          <cell r="L5">
-            <v>493</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>82011297</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>3276000602996</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Дверь универсальная Delinia ID «Оксфорд» 60x25.6 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I6">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K6">
-            <v>3</v>
-          </cell>
-          <cell r="L6">
-            <v>707</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>82011298</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>3276000603009</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 80x25.6 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I7">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K7">
-            <v>7</v>
-          </cell>
-          <cell r="L7">
-            <v>930</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>82011299</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>3276000603016</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Фальшпанель для напольного каркаса Delinia ID «Оксфорд» 58x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I8">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K8">
-            <v>7</v>
-          </cell>
-          <cell r="L8">
-            <v>1556</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>82011300</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>3276000603023</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Фальшпанель для напольного каркаса Delinia ID «Оксфорд» 58x214 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I9">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-          <cell r="L9">
-            <v>4780</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>82011301</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>3276000603030</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID «Оксфорд» 40x38.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I10">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K10">
-            <v>6</v>
-          </cell>
-          <cell r="L10">
-            <v>744</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>82011302</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>3276000603047</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Дверь универсальная Delinia ID «Оксфорд» 60x38.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I11">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K11">
-            <v>3</v>
-          </cell>
-          <cell r="L11">
-            <v>934</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>82011303</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>3276000603054</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Дверь универсальная Delinia ID «Оксфорд» 80x38.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I12">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K12">
-            <v>3</v>
-          </cell>
-          <cell r="L12">
-            <v>1176</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>82011304</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>3276000603061</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 15x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I13">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K13">
-            <v>4</v>
-          </cell>
-          <cell r="L13">
-            <v>434</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>82011305</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>3276000603078</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 15x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I14">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K14">
-            <v>2</v>
-          </cell>
-          <cell r="L14">
-            <v>682</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>82011306</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>3276000603085</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 33x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I15">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K15">
-            <v>3</v>
-          </cell>
-          <cell r="L15">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>82011308</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>3276000603108</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Дверь для шкафа Delinia ID  «Оксфорд» 30x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I16">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K16">
-            <v>13</v>
-          </cell>
-          <cell r="L16">
-            <v>833</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>82011309</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>3276000603115</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Дверь для шкафа Delinia ID  «Оксфорд» 40x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I17">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K17">
-            <v>8</v>
-          </cell>
-          <cell r="L17">
-            <v>1112</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>82011310</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>3276000603122</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Дверь для шкафа Delinia ID  «Оксфорд» 45x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I18">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K18">
-            <v>4</v>
-          </cell>
-          <cell r="L18">
-            <v>1246</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>82011311</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>3276000603139</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Дверь для шкафа Delinia ID  «Оксфорд» 60x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I19">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K19">
-            <v>5</v>
-          </cell>
-          <cell r="L19">
-            <v>1556</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>82011312</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>3276000603146</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Дверь для шкафа Delinia ID  «Оксфорд» 30x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I20">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K20">
-            <v>7</v>
-          </cell>
-          <cell r="L20">
-            <v>1057</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>82011313</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>3276000602859</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 45x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I21">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K21">
-            <v>9</v>
-          </cell>
-          <cell r="L21">
-            <v>1573</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>82011314</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>3276000602866</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 60x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I22">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K22">
-            <v>7</v>
-          </cell>
-          <cell r="L22">
-            <v>2396</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>82011315</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>3276000602873</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 60x138 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="I23">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>3148</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>82011316</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>3276000602880</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 45x214 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I24">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K24">
-            <v>1</v>
-          </cell>
-          <cell r="L24">
-            <v>3573</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>82011317</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>3276000602897</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Фальшпанель для навесного каркаса Delinia ID «Оксфорд» 37x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I25">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K25">
-            <v>8</v>
-          </cell>
-          <cell r="L25">
-            <v>934</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>82011318</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>3276000602903</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Фальшпанель для навесного каркаса Delinia ID «Оксфорд» 37x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I26">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K26">
-            <v>7</v>
-          </cell>
-          <cell r="L26">
-            <v>1190</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>82011319</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>3276000602910</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 40x102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I27">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K27">
-            <v>10</v>
-          </cell>
-          <cell r="L27">
-            <v>1435</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>82011320</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>3276000602927</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Дверь для ящика под духовку Delinia ID «Оксфорд» 60x16.5 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I28">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K28">
-            <v>2</v>
-          </cell>
-          <cell r="L28">
-            <v>477</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>82011321</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>3276000602934</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Угол для шкафа Delinia ID «Оксфорд» 4x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I29">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K29">
-            <v>4</v>
-          </cell>
-          <cell r="L29">
-            <v>472</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>82011322</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>3276000602941</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Дверь для шкафа Delinia ID «Оксфорд» 33x77 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I30">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K30">
-            <v>4</v>
-          </cell>
-          <cell r="L30">
-            <v>934</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>82309078</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>4680039030726</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Витрина для шкафа Delinia ID "Оксфорд" 40х76.8 см, МДФ, цвет серый антрацит</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I31">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K31">
-            <v>3</v>
-          </cell>
-          <cell r="L31">
-            <v>2505</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>82309082</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>4680039030764</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Витрина для шкафа Delinia ID "Оксфорд" 40х102.4 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G32" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I32">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K32">
-            <v>10</v>
-          </cell>
-          <cell r="L32">
-            <v>2978</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>82309105</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>4680039030801</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Карниз Delinia ID  «Оксфорд» 220х7 см, ЛДСП</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G33" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I33">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K33">
-            <v>3</v>
-          </cell>
-          <cell r="L33">
-            <v>665</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>82309109</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>4680039030849</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Карниз Delinia ID  «Оксфорд» 220х4 см, ЛДСП</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G34" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I34">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K34">
-            <v>4</v>
-          </cell>
-          <cell r="L34">
-            <v>457</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>82623854</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>3276007126068</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Дверь для выдвижного ящика под духовку Delinia "Оксфорд" 16.7х44.7 см</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="I35">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K35">
-            <v>1</v>
-          </cell>
-          <cell r="L35">
-            <v>275</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>82624892</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>3276007126723</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Дверь для ящика Delinia «Оксфорд» 40x26 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="I36">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>493</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>82624893</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>3276007126730</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Дверь универсальная Delinia «Оксфорд» 60x26 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G37" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I37">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K37">
-            <v>0</v>
-          </cell>
-          <cell r="L37">
-            <v>707</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>82624894</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>3276007126747</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Дверь для ящика Delinia «Оксфорд» 80x26 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I38">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-          <cell r="L38">
-            <v>930</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>82624918</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>3276007126983</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Дверь для ящика под духовку Delinia «Оксфорд» 60x17 см, МДФ, цвет тёмно-серый</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I39">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K39">
-            <v>1</v>
-          </cell>
-          <cell r="L39">
-            <v>477</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>82624919</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>3276007126990</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Дверь для ящика Delinia «Оксфорд» 40x13 см, МДФ, цвет бежевый</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G40" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I40">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J40" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K40">
-            <v>0</v>
-          </cell>
-          <cell r="L40">
-            <v>276</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>82624920</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>3276007127003</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Дверь для выдвижного ящика Delinia ID "Оксфорд" 12.5х59.7 см</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G41" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="I41">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K41">
-            <v>0</v>
-          </cell>
-          <cell r="L41">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>82624921</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>3276007127010</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Дверь для выдвижного ящика Delinia "Оксфорд" 12.5х79.7 см</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>да</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="G42" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>нет</v>
-          </cell>
-          <cell r="I42">
-            <v>1001863015</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v>ООО Сидак-СП</v>
-          </cell>
-          <cell r="K42">
-            <v>0</v>
-          </cell>
-          <cell r="L42">
-            <v>496</v>
           </cell>
         </row>
       </sheetData>
@@ -11631,9 +10028,9 @@
       <c r="H30" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="30" t="e">
+      <c r="I30" s="30">
         <f>VLOOKUP(G30,[1]Result!$A$1:$B$1000,2,0)</f>
-        <v>#N/A</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11953,6 +10350,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -11962,12 +10365,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -11982,8 +10379,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12463,14 +10860,14 @@
         <v>86</v>
       </c>
       <c r="G23" s="33">
-        <v>82011298</v>
+        <v>82624894</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="30">
-        <f>VLOOKUP(G23,'[2]Лист 1'!$A$1:$L$200,12,0)</f>
-        <v>930</v>
+      <c r="I23" s="30" t="e">
+        <f>VLOOKUP(G23,[1]Result!$A$1:$B$1000,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="J23" s="72" t="s">
         <v>151</v>
@@ -12494,8 +10891,8 @@
         <v>97</v>
       </c>
       <c r="I24" s="30">
-        <f>VLOOKUP(G24,'[2]Лист 1'!$A$1:$L$200,12,0)</f>
-        <v>1176</v>
+        <f>VLOOKUP(G24,[1]Result!$A$1:$B$1000,2,0)</f>
+        <v>1257</v>
       </c>
       <c r="J24" s="73" t="s">
         <v>151</v>
@@ -12946,6 +11343,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -12955,12 +11358,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13920,6 +12317,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -13929,12 +12332,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -14893,6 +13290,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -14902,12 +13305,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -15845,12 +14242,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -15860,6 +14251,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -16792,12 +15189,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
@@ -16807,6 +15198,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -17744,6 +16141,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -17753,12 +16156,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -18696,12 +17093,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -18711,6 +17102,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -19657,6 +18054,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -19666,12 +18069,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -20609,12 +19006,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -20624,6 +19015,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -22134,12 +20531,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -22149,6 +20540,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -23086,12 +21483,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -23101,6 +21492,12 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -23115,7 +21512,7 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -24037,6 +22434,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:I34"/>
@@ -24046,12 +22449,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -26388,6 +24785,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
@@ -26397,12 +24800,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -28371,6 +26768,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A30:D30"/>
@@ -28380,12 +26783,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -29362,6 +27759,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -29371,12 +27774,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -30353,6 +28750,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F26:I26"/>
@@ -30362,12 +28765,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToWidth="0" orientation="portrait" r:id="rId1"/>
